--- a/biology/Médecine/Ministère_de_la_Santé_(république_populaire_de_Chine)/Ministère_de_la_Santé_(république_populaire_de_Chine).xlsx
+++ b/biology/Médecine/Ministère_de_la_Santé_(république_populaire_de_Chine)/Ministère_de_la_Santé_(république_populaire_de_Chine).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Minist%C3%A8re_de_la_Sant%C3%A9_(r%C3%A9publique_populaire_de_Chine)</t>
+          <t>Ministère_de_la_Santé_(république_populaire_de_Chine)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le ministère de la Santé de la république populaire de Chine (MOH; chinois simplifié : 卫生部 ; pinyin : Wèishēng Bù). La ministre actuelle est Li Bin, qui a succédé à Chen Zhu en 2013 lorsque les fonctions liées à la santé, d'une part, et au planning familial, d'autre part, ont été fusionnées au sein d'un super ministère, la Commission nationale de la santé et de la planification familiale, dès le premier mandat de Li Keqiang (2013-2018 puis 2018-2023).
  Portail de la politique   Portail de la médecine   Portail de la Chine                   </t>
